--- a/MyBoss-Sample data.xlsx
+++ b/MyBoss-Sample data.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitatolstoy/MyBoss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BEEC6E-52C6-E64B-9D7E-5A73CF2AF6BB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42250BD-BAAC-6440-9210-5915E4F4FFFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15840" activeTab="2" xr2:uid="{37419241-022C-1E4F-AB89-39142F5DE753}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15840" activeTab="1" xr2:uid="{37419241-022C-1E4F-AB89-39142F5DE753}"/>
   </bookViews>
   <sheets>
-    <sheet name="data_minimum" sheetId="5" r:id="rId1"/>
-    <sheet name="data_example" sheetId="1" r:id="rId2"/>
-    <sheet name="data_enriched" sheetId="3" r:id="rId3"/>
+    <sheet name="Simplest" sheetId="5" r:id="rId1"/>
+    <sheet name="Real-life" sheetId="1" r:id="rId2"/>
+    <sheet name="Advanced" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">data_enriched!$A$1:$N$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data_example!$A$1:$N$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_minimum!$A$1:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Advanced!$A$1:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Real-life'!$A$1:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simplest!$A$1:$N$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="175">
   <si>
     <t>Job Title</t>
   </si>
@@ -51,9 +51,6 @@
 Flag</t>
   </si>
   <si>
-    <t>CC ID</t>
-  </si>
-  <si>
     <t>HR ID</t>
   </si>
   <si>
@@ -529,9 +526,6 @@
   </si>
   <si>
     <t>Accountant</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
   <si>
     <t>Employee Surname</t>
@@ -561,13 +555,19 @@
   </si>
   <si>
     <t>Development</t>
+  </si>
+  <si>
+    <t>Cost Center ID</t>
+  </si>
+  <si>
+    <t>Sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -576,6 +576,11 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -600,13 +605,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -924,7 +930,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1763,30 +1769,30 @@
     <col min="16142" max="16142" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -1801,842 +1807,998 @@
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
+      <c r="N2" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
-        <v>40</v>
+      <c r="N3" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
+      <c r="N4" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>35</v>
+      <c r="N5" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
+      <c r="N6" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
+      <c r="N7" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
-        <v>18</v>
+      <c r="N8" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
-        <v>40</v>
+      <c r="N9" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
+      <c r="N10" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
+      <c r="N12" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
+      <c r="N13" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
         <v>55</v>
       </c>
-      <c r="F14" t="s">
-        <v>56</v>
+      <c r="N14" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
         <v>57</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
         <v>55</v>
       </c>
-      <c r="F15" t="s">
-        <v>56</v>
+      <c r="N15" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
         <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
         <v>55</v>
       </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N16" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
         <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
         <v>55</v>
       </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N17" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
         <v>66</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N18" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
         <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
         <v>72</v>
       </c>
-      <c r="F19" t="s">
+      <c r="N19" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>74</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
         <v>72</v>
       </c>
-      <c r="F20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N20" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
         <v>76</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
         <v>72</v>
       </c>
-      <c r="F21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N21" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
         <v>79</v>
-      </c>
-      <c r="B22" t="s">
-        <v>80</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
         <v>72</v>
       </c>
-      <c r="F22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N22" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
         <v>82</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" t="s">
         <v>85</v>
       </c>
-      <c r="F23" t="s">
+      <c r="N23" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>87</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" t="s">
         <v>85</v>
       </c>
-      <c r="F24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N24" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
         <v>90</v>
-      </c>
-      <c r="B25" t="s">
-        <v>91</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
         <v>85</v>
       </c>
-      <c r="F25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N25" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
         <v>93</v>
-      </c>
-      <c r="B26" t="s">
-        <v>94</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
         <v>85</v>
       </c>
-      <c r="F26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N26" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
         <v>96</v>
-      </c>
-      <c r="B27" t="s">
-        <v>97</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s">
         <v>85</v>
       </c>
-      <c r="F27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N27" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
         <v>85</v>
-      </c>
-      <c r="B28" t="s">
-        <v>86</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" t="s">
         <v>66</v>
       </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N28" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
         <v>100</v>
-      </c>
-      <c r="B29" t="s">
-        <v>101</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s">
         <v>66</v>
       </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N29" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
         <v>103</v>
-      </c>
-      <c r="B30" t="s">
-        <v>104</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
         <v>66</v>
       </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N30" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
         <v>106</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
         <v>66</v>
       </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N31" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
         <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N32" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
         <v>66</v>
       </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N33" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" t="s">
         <v>110</v>
-      </c>
-      <c r="B34" t="s">
-        <v>111</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" t="s">
         <v>100</v>
       </c>
-      <c r="F34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N34" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" t="s">
         <v>113</v>
-      </c>
-      <c r="B35" t="s">
-        <v>114</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" t="s">
         <v>100</v>
       </c>
-      <c r="F35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N35" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
         <v>116</v>
-      </c>
-      <c r="B36" t="s">
-        <v>117</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" t="s">
         <v>100</v>
       </c>
-      <c r="F36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N36" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" t="s">
         <v>119</v>
-      </c>
-      <c r="B37" t="s">
-        <v>120</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" t="s">
         <v>100</v>
       </c>
-      <c r="F37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N37" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" t="s">
         <v>122</v>
-      </c>
-      <c r="B38" t="s">
-        <v>123</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" t="s">
         <v>100</v>
       </c>
-      <c r="F38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N38" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" t="s">
         <v>128</v>
       </c>
-      <c r="F39" t="s">
+      <c r="N39" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>130</v>
-      </c>
-      <c r="B40" t="s">
-        <v>131</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" t="s">
         <v>128</v>
       </c>
-      <c r="F40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N40" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
         <v>133</v>
-      </c>
-      <c r="B41" t="s">
-        <v>134</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" t="s">
         <v>128</v>
       </c>
-      <c r="F41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N41" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" t="s">
         <v>135</v>
-      </c>
-      <c r="B42" t="s">
-        <v>136</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" t="s">
         <v>128</v>
       </c>
-      <c r="F42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N42" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
         <v>138</v>
-      </c>
-      <c r="B43" t="s">
-        <v>139</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" t="s">
         <v>128</v>
       </c>
-      <c r="F43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N43" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
         <v>128</v>
-      </c>
-      <c r="B44" t="s">
-        <v>129</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" t="s">
         <v>66</v>
       </c>
-      <c r="F44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N44" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" t="s">
         <v>141</v>
-      </c>
-      <c r="B45" t="s">
-        <v>142</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" t="s">
         <v>130</v>
       </c>
-      <c r="F45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N45" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
         <v>34</v>
-      </c>
-      <c r="B46" t="s">
-        <v>35</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N46" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
         <v>39</v>
-      </c>
-      <c r="B47" t="s">
-        <v>40</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
         <v>34</v>
       </c>
-      <c r="F47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N47" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" t="s">
         <v>146</v>
-      </c>
-      <c r="B48" t="s">
-        <v>147</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
         <v>34</v>
       </c>
-      <c r="F48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N48" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" t="s">
         <v>148</v>
-      </c>
-      <c r="B49" t="s">
-        <v>149</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
         <v>39</v>
       </c>
-      <c r="F49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N49" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" t="s">
         <v>151</v>
-      </c>
-      <c r="B50" t="s">
-        <v>152</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" t="s">
         <v>39</v>
       </c>
-      <c r="F50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N50" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" t="s">
         <v>154</v>
-      </c>
-      <c r="B51" t="s">
-        <v>155</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
         <v>39</v>
       </c>
-      <c r="F51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N51" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" t="s">
         <v>157</v>
-      </c>
-      <c r="B52" t="s">
-        <v>158</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
         <v>39</v>
       </c>
-      <c r="F52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N52" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
         <v>162</v>
-      </c>
-      <c r="B53" t="s">
-        <v>163</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
         <v>7</v>
       </c>
-      <c r="F53" t="s">
-        <v>8</v>
+      <c r="N53" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CDF36D-5EA0-E84A-B55F-4894595BA27A}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -3488,30 +3650,30 @@
     <col min="16142" max="16142" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -3526,1053 +3688,1209 @@
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
+      <c r="N2" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
-        <v>40</v>
+      <c r="N3" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
+      <c r="N4" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
+      <c r="N6" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
+      <c r="N7" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
-        <v>18</v>
+      <c r="N8" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
-        <v>40</v>
+      <c r="N9" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
+      <c r="N10" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
       <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
+      <c r="N12" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
+      <c r="N13" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>55</v>
       </c>
-      <c r="F14" t="s">
-        <v>56</v>
+      <c r="N14" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>55</v>
       </c>
-      <c r="F15" t="s">
-        <v>56</v>
+      <c r="N15" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F17" t="s">
         <v>55</v>
       </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="N17" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
+      <c r="B32" t="s">
         <v>55</v>
       </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="C32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="N32" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" t="s">
+        <v>100</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" t="s">
+        <v>100</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" t="s">
+        <v>100</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" t="s">
+        <v>100</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" t="s">
+        <v>128</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" t="s">
+        <v>128</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" t="s">
+        <v>128</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" t="s">
+        <v>128</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" t="s">
+        <v>128</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" t="s">
+        <v>66</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" t="s">
+        <v>130</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" t="s">
-        <v>128</v>
-      </c>
-      <c r="F40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" t="s">
-        <v>130</v>
-      </c>
-      <c r="F45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+      <c r="N46" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
         <v>34</v>
       </c>
-      <c r="B46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="N47" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
+        <v>34</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
         <v>39</v>
       </c>
-      <c r="B47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="N49" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="B50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" t="s">
         <v>39</v>
       </c>
-      <c r="F49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>151</v>
-      </c>
-      <c r="B50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="N50" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="B51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
         <v>39</v>
       </c>
-      <c r="F50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>154</v>
-      </c>
-      <c r="B51" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="N51" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>156</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="B52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
         <v>39</v>
       </c>
-      <c r="F51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N52" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
         <v>162</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
         <v>7</v>
       </c>
-      <c r="F53" t="s">
-        <v>8</v>
+      <c r="N53" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4586,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7302A043-AACA-3B48-8FD1-3E82C661F656}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4607,30 +4925,30 @@
     <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -4645,178 +4963,178 @@
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M2">
         <v>100</v>
       </c>
-      <c r="N2" t="s">
-        <v>165</v>
+      <c r="N2" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
         <v>72</v>
       </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M3">
         <v>100</v>
       </c>
-      <c r="N3" t="s">
-        <v>165</v>
+      <c r="N3" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
         <v>146</v>
       </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
       <c r="I4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M4">
         <v>100</v>
       </c>
-      <c r="N4" t="s">
-        <v>165</v>
+      <c r="N4" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
         <v>148</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
       <c r="I5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M5">
         <v>100</v>
       </c>
-      <c r="N5" t="s">
-        <v>165</v>
+      <c r="N5" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
         <v>96</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
         <v>85</v>
       </c>
-      <c r="F6" t="s">
-        <v>86</v>
-      </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M6">
         <v>100</v>
       </c>
-      <c r="N6" t="s">
-        <v>165</v>
+      <c r="N6" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
         <v>66</v>
       </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
       <c r="I7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -4824,31 +5142,31 @@
       <c r="M7">
         <v>100</v>
       </c>
-      <c r="N7" t="s">
-        <v>165</v>
+      <c r="N7" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
       <c r="I8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -4856,292 +5174,292 @@
       <c r="M8">
         <v>100</v>
       </c>
-      <c r="N8" t="s">
-        <v>165</v>
+      <c r="N8" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
         <v>122</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
         <v>100</v>
       </c>
-      <c r="F9" t="s">
-        <v>101</v>
-      </c>
       <c r="I9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M9">
         <v>100</v>
       </c>
-      <c r="N9" t="s">
-        <v>165</v>
+      <c r="N9" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M10">
         <v>100</v>
       </c>
-      <c r="N10" t="s">
-        <v>165</v>
+      <c r="N10" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
         <v>151</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
       <c r="I11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M11">
         <v>100</v>
       </c>
-      <c r="N11" t="s">
-        <v>165</v>
+      <c r="N11" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
       <c r="I12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M12">
         <v>100</v>
       </c>
-      <c r="N12" t="s">
-        <v>165</v>
+      <c r="N12" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s">
         <v>138</v>
       </c>
-      <c r="B13" t="s">
-        <v>139</v>
-      </c>
       <c r="C13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" t="s">
         <v>127</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>128</v>
       </c>
-      <c r="F13" t="s">
-        <v>129</v>
-      </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M13">
         <v>100</v>
       </c>
-      <c r="N13" t="s">
-        <v>165</v>
+      <c r="N13" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
         <v>72</v>
       </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
         <v>66</v>
       </c>
-      <c r="F14" t="s">
-        <v>67</v>
-      </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M14">
         <v>100</v>
       </c>
-      <c r="N14" t="s">
-        <v>165</v>
+      <c r="N14" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
         <v>66</v>
       </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M15">
         <v>100</v>
       </c>
-      <c r="N15" t="s">
-        <v>165</v>
+      <c r="N15" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
         <v>55</v>
       </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M16">
         <v>100</v>
       </c>
-      <c r="N16" t="s">
-        <v>165</v>
+      <c r="N16" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
         <v>128</v>
       </c>
-      <c r="B17" t="s">
-        <v>129</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
         <v>66</v>
       </c>
-      <c r="F17" t="s">
-        <v>67</v>
-      </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M17">
         <v>100</v>
       </c>
-      <c r="N17" t="s">
-        <v>165</v>
+      <c r="N17" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -5149,37 +5467,37 @@
       <c r="M18">
         <v>100</v>
       </c>
-      <c r="N18" t="s">
-        <v>165</v>
+      <c r="N18" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
         <v>39</v>
       </c>
-      <c r="F19" t="s">
-        <v>40</v>
-      </c>
       <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s">
         <v>48</v>
       </c>
-      <c r="H19" t="s">
-        <v>49</v>
-      </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -5187,31 +5505,31 @@
       <c r="M19">
         <v>100</v>
       </c>
-      <c r="N19" t="s">
-        <v>165</v>
+      <c r="N19" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J20" s="3">
         <v>43414</v>
@@ -5219,727 +5537,727 @@
       <c r="M20">
         <v>120</v>
       </c>
-      <c r="N20" t="s">
-        <v>165</v>
+      <c r="N20" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
         <v>119</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
         <v>100</v>
       </c>
-      <c r="F21" t="s">
-        <v>101</v>
-      </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M21">
         <v>120</v>
       </c>
-      <c r="N21" t="s">
-        <v>165</v>
+      <c r="N21" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
         <v>116</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" t="s">
-        <v>101</v>
-      </c>
       <c r="I22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M22">
         <v>120</v>
       </c>
-      <c r="N22" t="s">
-        <v>165</v>
+      <c r="N22" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
       <c r="I23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M23">
         <v>120</v>
       </c>
-      <c r="N23" t="s">
-        <v>165</v>
+      <c r="N23" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>34</v>
       </c>
-      <c r="F24" t="s">
-        <v>35</v>
-      </c>
       <c r="I24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M24">
         <v>120</v>
       </c>
-      <c r="N24" t="s">
-        <v>165</v>
+      <c r="N24" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
         <v>76</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
         <v>72</v>
       </c>
-      <c r="F25" t="s">
-        <v>73</v>
-      </c>
       <c r="I25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M25">
         <v>120</v>
       </c>
-      <c r="N25" t="s">
-        <v>165</v>
+      <c r="N25" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
       <c r="C26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
       <c r="I26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M26">
         <v>120</v>
       </c>
-      <c r="N26" t="s">
-        <v>165</v>
+      <c r="N26" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
         <v>16</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>17</v>
       </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
       <c r="I27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M27">
         <v>120</v>
       </c>
-      <c r="N27" t="s">
-        <v>165</v>
+      <c r="N27" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
         <v>16</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>17</v>
       </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
       <c r="I28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M28">
         <v>120</v>
       </c>
-      <c r="N28" t="s">
-        <v>165</v>
+      <c r="N28" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" t="s">
         <v>135</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="D29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" t="s">
         <v>127</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>128</v>
       </c>
-      <c r="F29" t="s">
-        <v>129</v>
-      </c>
       <c r="I29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M29">
         <v>120</v>
       </c>
-      <c r="N29" t="s">
-        <v>165</v>
+      <c r="N29" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
         <v>16</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>17</v>
       </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
       <c r="I30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M30">
         <v>120</v>
       </c>
-      <c r="N30" t="s">
-        <v>165</v>
+      <c r="N30" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>72</v>
       </c>
-      <c r="F31" t="s">
-        <v>73</v>
-      </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M31">
         <v>120</v>
       </c>
-      <c r="N31" t="s">
-        <v>165</v>
+      <c r="N31" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" t="s">
         <v>130</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" t="s">
         <v>127</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>128</v>
       </c>
-      <c r="F32" t="s">
-        <v>129</v>
-      </c>
       <c r="I32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M32">
         <v>120</v>
       </c>
-      <c r="N32" t="s">
-        <v>165</v>
+      <c r="N32" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
         <v>103</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
         <v>66</v>
       </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
       <c r="I33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M33">
         <v>120</v>
       </c>
-      <c r="N33" t="s">
-        <v>165</v>
+      <c r="N33" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>39</v>
       </c>
-      <c r="F34" t="s">
-        <v>40</v>
-      </c>
       <c r="I34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M34">
         <v>120</v>
       </c>
-      <c r="N34" t="s">
-        <v>165</v>
+      <c r="N34" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
         <v>28</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
         <v>16</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>17</v>
       </c>
-      <c r="F35" t="s">
-        <v>18</v>
-      </c>
       <c r="I35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M35">
         <v>120</v>
       </c>
-      <c r="N35" t="s">
-        <v>165</v>
+      <c r="N35" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
         <v>93</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" t="s">
         <v>85</v>
       </c>
-      <c r="F36" t="s">
-        <v>86</v>
-      </c>
       <c r="I36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M36">
         <v>120</v>
       </c>
-      <c r="N36" t="s">
-        <v>165</v>
+      <c r="N36" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
         <v>90</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" t="s">
         <v>85</v>
       </c>
-      <c r="F37" t="s">
-        <v>86</v>
-      </c>
       <c r="I37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M37">
         <v>120</v>
       </c>
-      <c r="N37" t="s">
-        <v>165</v>
+      <c r="N37" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" t="s">
         <v>154</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
         <v>39</v>
       </c>
-      <c r="F38" t="s">
-        <v>40</v>
-      </c>
       <c r="I38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M38">
         <v>120</v>
       </c>
-      <c r="N38" t="s">
-        <v>165</v>
+      <c r="N38" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
         <v>110</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" t="s">
         <v>100</v>
       </c>
-      <c r="F39" t="s">
-        <v>101</v>
-      </c>
       <c r="I39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M39">
         <v>120</v>
       </c>
-      <c r="N39" t="s">
-        <v>165</v>
+      <c r="N39" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
         <v>113</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" t="s">
         <v>100</v>
       </c>
-      <c r="F40" t="s">
-        <v>101</v>
-      </c>
       <c r="I40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M40">
         <v>120</v>
       </c>
-      <c r="N40" t="s">
-        <v>165</v>
+      <c r="N40" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" t="s">
         <v>141</v>
       </c>
-      <c r="B41" t="s">
-        <v>142</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" t="s">
         <v>130</v>
       </c>
-      <c r="F41" t="s">
-        <v>131</v>
-      </c>
       <c r="I41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M41">
         <v>120</v>
       </c>
-      <c r="N41" t="s">
-        <v>165</v>
+      <c r="N41" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
         <v>79</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" t="s">
         <v>72</v>
       </c>
-      <c r="F42" t="s">
-        <v>73</v>
-      </c>
       <c r="I42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M42">
         <v>120</v>
       </c>
-      <c r="N42" t="s">
-        <v>165</v>
+      <c r="N42" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" t="s">
         <v>127</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>128</v>
       </c>
-      <c r="F43" t="s">
-        <v>129</v>
-      </c>
       <c r="I43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M43">
         <v>120</v>
       </c>
-      <c r="N43" t="s">
-        <v>165</v>
+      <c r="N43" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" t="s">
         <v>157</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s">
         <v>159</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I44" t="s">
-        <v>160</v>
       </c>
       <c r="M44">
         <v>120</v>
       </c>
-      <c r="N44" t="s">
-        <v>165</v>
+      <c r="N44" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
         <v>60</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" t="s">
         <v>55</v>
       </c>
-      <c r="F45" t="s">
-        <v>56</v>
-      </c>
       <c r="I45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -5947,31 +6265,31 @@
       <c r="M45">
         <v>120</v>
       </c>
-      <c r="N45" t="s">
-        <v>165</v>
+      <c r="N45" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
         <v>87</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
         <v>85</v>
       </c>
-      <c r="F46" t="s">
-        <v>86</v>
-      </c>
       <c r="I46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J46" s="3">
         <v>43291</v>
@@ -5979,182 +6297,182 @@
       <c r="M46">
         <v>120</v>
       </c>
-      <c r="N46" t="s">
-        <v>165</v>
+      <c r="N46" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
         <v>57</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" t="s">
         <v>55</v>
       </c>
-      <c r="F47" t="s">
-        <v>56</v>
-      </c>
       <c r="I47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M47">
         <v>120</v>
       </c>
-      <c r="N47" t="s">
-        <v>165</v>
+      <c r="N47" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
         <v>106</v>
       </c>
-      <c r="B48" t="s">
-        <v>107</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" t="s">
         <v>66</v>
       </c>
-      <c r="F48" t="s">
-        <v>67</v>
-      </c>
       <c r="I48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M48">
         <v>120</v>
       </c>
-      <c r="N48" t="s">
-        <v>165</v>
+      <c r="N48" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" t="s">
         <v>133</v>
       </c>
-      <c r="B49" t="s">
-        <v>134</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" t="s">
         <v>127</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>128</v>
       </c>
-      <c r="F49" t="s">
-        <v>129</v>
-      </c>
       <c r="I49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M49">
         <v>120</v>
       </c>
-      <c r="N49" t="s">
-        <v>165</v>
+      <c r="N49" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" t="s">
         <v>66</v>
       </c>
-      <c r="F50" t="s">
-        <v>67</v>
-      </c>
       <c r="I50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M50">
         <v>120</v>
       </c>
-      <c r="N50" t="s">
-        <v>165</v>
+      <c r="N50" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
         <v>39</v>
       </c>
-      <c r="B51" t="s">
-        <v>40</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s">
         <v>34</v>
       </c>
-      <c r="F51" t="s">
-        <v>35</v>
-      </c>
       <c r="I51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M51">
         <v>120</v>
       </c>
-      <c r="N51" t="s">
-        <v>165</v>
+      <c r="N51" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" t="s">
         <v>82</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>85</v>
       </c>
-      <c r="F52" t="s">
-        <v>86</v>
-      </c>
       <c r="I52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M52">
         <v>120</v>
       </c>
-      <c r="N52" t="s">
-        <v>165</v>
+      <c r="N52" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
